--- a/lists_out/asthma_drugs.xlsx
+++ b/lists_out/asthma_drugs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elsiehorne/Docs/read_codes/lists_out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A7116104-25BE-2C49-A2F3-ED832600E6C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BF5B040E-4EC6-CD4A-8C27-DE946602B469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16240" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="28800" yWindow="-6340" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uncategorised" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2781" uniqueCount="1732">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="2801" uniqueCount="1735">
   <si>
     <t>read_code</t>
   </si>
@@ -5236,12 +5236,21 @@
   </si>
   <si>
     <t>Susannah notes</t>
+  </si>
+  <si>
+    <t>out of use</t>
+  </si>
+  <si>
+    <t>anti-allergy</t>
+  </si>
+  <si>
+    <t>add aerochamber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -6084,11 +6093,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A837" sqref="A837:D865"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6325,8 +6334,11 @@
       <c r="D16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -6339,8 +6351,11 @@
       <c r="D17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -6353,8 +6368,11 @@
       <c r="D18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -6367,8 +6385,11 @@
       <c r="D19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -6382,7 +6403,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -6396,7 +6417,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -6410,7 +6431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -6424,7 +6445,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -6438,7 +6459,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -6452,7 +6473,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -6466,7 +6487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -6480,7 +6501,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -6494,7 +6515,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -6508,7 +6529,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -6522,7 +6543,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -6535,8 +6556,11 @@
       <c r="D31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -6549,8 +6573,11 @@
       <c r="D32" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -6563,8 +6590,11 @@
       <c r="D33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -6577,8 +6607,11 @@
       <c r="D34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -6591,8 +6624,11 @@
       <c r="D35" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -6605,8 +6641,11 @@
       <c r="D36" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -6620,7 +6659,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -6634,7 +6673,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -6648,7 +6687,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -6662,7 +6701,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -6676,7 +6715,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -6690,7 +6729,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -6704,7 +6743,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -6718,7 +6757,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -6732,7 +6771,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -6746,7 +6785,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -6760,7 +6799,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -6774,7 +6813,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -6788,7 +6827,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -6802,7 +6841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -6816,7 +6855,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -6830,7 +6869,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -6843,8 +6882,11 @@
       <c r="D53" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -6857,8 +6899,11 @@
       <c r="D54" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -6871,8 +6916,11 @@
       <c r="D55" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -6885,8 +6933,11 @@
       <c r="D56" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -6899,8 +6950,11 @@
       <c r="D57" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -6913,8 +6967,11 @@
       <c r="D58" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -6927,8 +6984,11 @@
       <c r="D59" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -6941,8 +7001,11 @@
       <c r="D60" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -6955,8 +7018,11 @@
       <c r="D61" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -6970,7 +7036,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -6984,7 +7050,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -7046,7 +7112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7260,7 +7326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8384,7 +8450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9676,7 +9742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12494,10 +12560,10 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D22"/>
     </sheetView>
   </sheetViews>
@@ -12820,7 +12886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13216,16 +13282,20 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13242,7 +13312,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1725</v>
       </c>
@@ -13255,8 +13325,11 @@
       <c r="D2" s="2" t="s">
         <v>1727</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1728</v>
       </c>
@@ -13270,7 +13343,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1729</v>
       </c>
@@ -13290,7 +13363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13546,14 +13619,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="53.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -13718,7 +13794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13918,7 +13994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17072,7 +17148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17818,7 +17894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18396,11 +18472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18484,7 +18560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
